--- a/Assets/Excel/Talk.xlsx
+++ b/Assets/Excel/Talk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="11220" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Talk" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
+    <t>group</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>talkSubjectID</t>
+  </si>
+  <si>
+    <t>content</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>enum|TalkGroup</t>
+  </si>
+  <si>
+    <t>enum|TalkStep</t>
+  </si>
+  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Day1</t>
+  </si>
+  <si>
+    <t>BattleStart</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>What is going on? Why there are some monsters in my tower?</t>
+  </si>
+  <si>
+    <t>These are your fear. Let's fight against your fear.</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -641,8 +674,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -956,36 +992,108 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="14.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="14.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="13.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="59.4545454545455" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>1001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1002</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Talk.xlsx
+++ b/Assets/Excel/Talk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11220" windowHeight="9450"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Talk" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -55,7 +55,13 @@
     <t>What is going on? Why there are some monsters in my tower?</t>
   </si>
   <si>
-    <t>These are your fear. Let's fight against your fear.</t>
+    <t xml:space="preserve">These are your fear. </t>
+  </si>
+  <si>
+    <t>Who are you?</t>
+  </si>
+  <si>
+    <t>I am here to help you. Let's fight against your fear.</t>
   </si>
   <si>
     <t>End</t>
@@ -992,13 +998,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="14.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="14.7272727272727" customWidth="1"/>
@@ -1085,7 +1091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1093,7 +1099,41 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>1001</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Talk.xlsx
+++ b/Assets/Excel/Talk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -64,7 +64,28 @@
     <t>I am here to help you. Let's fight against your fear.</t>
   </si>
   <si>
+    <t>You can Click Move Button to cost movement to move.</t>
+  </si>
+  <si>
+    <t>Then you can click Attack Button to cost AP to attack.</t>
+  </si>
+  <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>Day2</t>
+  </si>
+  <si>
+    <t>We have leveled up and get some Mapclips and plants just now.</t>
+  </si>
+  <si>
+    <t>You can click Skill Button to cost SP to unlock character's skill.</t>
+  </si>
+  <si>
+    <t>You can click Map Button to set Mapclip on the map.</t>
+  </si>
+  <si>
+    <t>You can click Plant Button to set Plant on the map.</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1009,7 +1030,7 @@
     <col min="2" max="2" width="14.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="14.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="13.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="59.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -1125,7 +1146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1133,7 +1154,120 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1002</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1002</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1002</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1002</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1002</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>1002</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Talk.xlsx
+++ b/Assets/Excel/Talk.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Talk" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -62,12 +75,6 @@
   </si>
   <si>
     <t>I am here to help you. Let's fight against your fear.</t>
-  </si>
-  <si>
-    <t>You can Click Move Button to cost movement to move.</t>
-  </si>
-  <si>
-    <t>Then you can click Attack Button to cost AP to attack.</t>
   </si>
   <si>
     <t>End</t>
@@ -91,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1019,10 +1026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1146,7 +1153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1154,12 +1161,6 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>1002</v>
-      </c>
-      <c r="E9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1168,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1177,18 +1178,24 @@
         <v>1002</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>1002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1196,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1213,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1225,49 +1232,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>1002</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>1002</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Talk.xlsx
+++ b/Assets/Excel/Talk.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -83,16 +83,19 @@
     <t>Day2</t>
   </si>
   <si>
-    <t>We have leveled up and get some Mapclips and plants just now.</t>
-  </si>
-  <si>
-    <t>You can click Skill Button to cost SP to unlock character's skill.</t>
-  </si>
-  <si>
-    <t>You can click Map Button to set Mapclip on the map.</t>
-  </si>
-  <si>
-    <t>You can click Plant Button to set Plant on the map.</t>
+    <t>You need to be confident. You can fight against interview.</t>
+  </si>
+  <si>
+    <t>Enhance your skill and Seek a job to start a new fight when you are ready.</t>
+  </si>
+  <si>
+    <t>Day7</t>
+  </si>
+  <si>
+    <t>This is the last fight. Let's fight against the interview.</t>
+  </si>
+  <si>
+    <t>Yes.I will try my best!</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1029,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1037,7 +1040,7 @@
     <col min="2" max="2" width="14.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="14.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="13.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="68" customWidth="1"/>
+    <col min="5" max="5" width="74.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -1198,7 +1201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1206,13 +1209,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>1002</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1220,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1232,14 +1229,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Assets/Excel/Talk.xlsx
+++ b/Assets/Excel/Talk.xlsx
@@ -86,7 +86,7 @@
     <t>You need to be confident. You can fight against interview.</t>
   </si>
   <si>
-    <t>Enhance your skill and Seek a job to start a new fight when you are ready.</t>
+    <t>Enhance your skill and &lt;color="red"&gt;Seek a job &lt;/color&gt;to start a new fight when you are ready.</t>
   </si>
   <si>
     <t>Day7</t>
@@ -1032,7 +1032,7 @@
   <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/Assets/Excel/Talk.xlsx
+++ b/Assets/Excel/Talk.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -83,10 +83,37 @@
     <t>Day2</t>
   </si>
   <si>
-    <t>You need to be confident. You can fight against interview.</t>
+    <t>You need to be confident. You can fight against them.</t>
+  </si>
+  <si>
+    <t>Why these monsters come to my home? I just research magic in the tower and never hurt them.</t>
+  </si>
+  <si>
+    <t>Damn it. You are not a wizard. You are a game designer named Joshua Rabbit.</t>
+  </si>
+  <si>
+    <t>No. I am Leo Bright. A talented wizard who experts at Time Magic.</t>
+  </si>
+  <si>
+    <t>Reality is right at the door and it is time for you to seek a job!</t>
   </si>
   <si>
     <t>Enhance your skill and &lt;color="red"&gt;Seek a job &lt;/color&gt;to start a new fight when you are ready.</t>
+  </si>
+  <si>
+    <t>Day3</t>
+  </si>
+  <si>
+    <t>This is the magic plant and we can plant it to fight against the monster.</t>
+  </si>
+  <si>
+    <t>You call the games that you have developed as plant? Interesting.</t>
+  </si>
+  <si>
+    <t>Anyway, put the games into the portfolio just like put the plants at the garden.</t>
+  </si>
+  <si>
+    <t>Click &lt;color="red"&gt;Plant &lt;/color&gt; to place them. They will help you to pass the interview.</t>
   </si>
   <si>
     <t>Day7</t>
@@ -1029,10 +1056,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1195,13 +1222,13 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1209,7 +1236,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1002</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1217,13 +1250,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1234,26 +1267,167 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>1002</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>1001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>1002</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>1002</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>1002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>1002</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>1001</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Assets/Excel/Talk.xlsx
+++ b/Assets/Excel/Talk.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -41,7 +41,10 @@
     <t>talkSubjectID</t>
   </si>
   <si>
-    <t>content</t>
+    <t>strContent_EN</t>
+  </si>
+  <si>
+    <t>strContent_CN</t>
   </si>
   <si>
     <t>int</t>
@@ -68,15 +71,27 @@
     <t>What is going on? Why there are some monsters in my tower?</t>
   </si>
   <si>
+    <t>发生什么事了.jpg 为什么会有怪物在我的塔里？</t>
+  </si>
+  <si>
     <t xml:space="preserve">These are your fear. </t>
   </si>
   <si>
+    <t>这是你的恐惧鸭。</t>
+  </si>
+  <si>
     <t>Who are you?</t>
   </si>
   <si>
+    <t>你tm是谁啊，怎么在我家啊？</t>
+  </si>
+  <si>
     <t>I am here to help you. Let's fight against your fear.</t>
   </si>
   <si>
+    <t>我是来帮你的，来一起战胜恐惧吧！</t>
+  </si>
+  <si>
     <t>End</t>
   </si>
   <si>
@@ -86,43 +101,79 @@
     <t>You need to be confident. You can fight against them.</t>
   </si>
   <si>
+    <t>你要自信一点，你可以战胜他们的。</t>
+  </si>
+  <si>
     <t>Why these monsters come to my home? I just research magic in the tower and never hurt them.</t>
   </si>
   <si>
+    <t>为什么这些怪物要来我家，我只是在我的塔里偷偷研究魔法，从来没有伤害他们。</t>
+  </si>
+  <si>
     <t>Damn it. You are not a wizard. You are a game designer named Joshua Rabbit.</t>
   </si>
   <si>
+    <t>操。你不是什么法师，你是一个叫一只纸兔的游戏开发者。</t>
+  </si>
+  <si>
     <t>No. I am Leo Bright. A talented wizard who experts at Time Magic.</t>
   </si>
   <si>
+    <t>不，我叫莱奥·布莱特，一个研究时间魔法的天才魔法师。</t>
+  </si>
+  <si>
     <t>Reality is right at the door and it is time for you to seek a job!</t>
   </si>
   <si>
+    <t>现实就在门口，而现在它要走进来。你该找工作了。</t>
+  </si>
+  <si>
     <t>Enhance your skill and &lt;color="red"&gt;Seek a job &lt;/color&gt;to start a new fight when you are ready.</t>
   </si>
   <si>
+    <t>提升你的技能然后 &lt;color="red"&gt;Seek a job &lt;/color&gt;来开始新一轮战斗吧！</t>
+  </si>
+  <si>
     <t>Day3</t>
   </si>
   <si>
     <t>This is the magic plant and we can plant it to fight against the monster.</t>
   </si>
   <si>
+    <t>这是魔法植物！我们可以种下它来抵御敌人的进攻！</t>
+  </si>
+  <si>
     <t>You call the games that you have developed as plant? Interesting.</t>
   </si>
   <si>
+    <t>你把你做的游戏叫做植物？有意思。</t>
+  </si>
+  <si>
     <t>Anyway, put the games into the portfolio just like put the plants at the garden.</t>
   </si>
   <si>
+    <t>总之，把你的游戏放到作品集里，就像在花园种植物一样。</t>
+  </si>
+  <si>
     <t>Click &lt;color="red"&gt;Plant &lt;/color&gt; to place them. They will help you to pass the interview.</t>
   </si>
   <si>
+    <t>点击 &lt;color="red"&gt;Plant &lt;/color&gt; 来放置他们，他们会帮你通过面试的jpg</t>
+  </si>
+  <si>
     <t>Day7</t>
   </si>
   <si>
     <t>This is the last fight. Let's fight against the interview.</t>
   </si>
   <si>
+    <t>这是最后一场战斗了，来战胜面试吧。</t>
+  </si>
+  <si>
     <t>Yes.I will try my best!</t>
+  </si>
+  <si>
+    <t>我会努力的。</t>
   </si>
 </sst>
 </file>
@@ -1056,21 +1107,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E24"/>
+  <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="14.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="14.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="13.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="74.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="97" customWidth="1"/>
+    <col min="6" max="6" width="74.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1086,22 +1138,28 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1109,78 +1167,90 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1001</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1002</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>1001</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>1002</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1188,112 +1258,130 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>1002</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1001</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>1002</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>1001</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>1002</v>
       </c>
       <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>1002</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1301,78 +1389,90 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>1001</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>1002</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>1002</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>1002</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1380,44 +1480,50 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>1002</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>1001</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1425,10 +1531,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
